--- a/INPUT_para_tabelao_qav_5.00_reais_todas_bases.xlsx
+++ b/INPUT_para_tabelao_qav_5.00_reais_todas_bases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kk3f\Desktop\Gerador de Tabelas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kk3f\Desktop\Gerador de Tabelas 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1981,7 +1981,7 @@
   </sheetPr>
   <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
@@ -4661,7 +4661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV705"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F388" sqref="F388"/>
     </sheetView>
   </sheetViews>
@@ -40249,7 +40249,7 @@
   <dimension ref="A1:AS337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40273,8 +40273,8 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>C1&amp;"_"&amp;H1&amp;"_"&amp;B1</f>
-        <v>MODELO_DESTINO_base</v>
+        <f>"Route_"&amp;C1&amp;"_"&amp;G1&amp;"_"&amp;H1</f>
+        <v>Route_MODELO_ORIGEM_DESTINO</v>
       </c>
       <c r="B1" t="s">
         <v>259</v>
@@ -40411,8 +40411,8 @@
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>C2&amp;"_"&amp;H2&amp;"_"&amp;B2</f>
-        <v>MP_PMLZ_1_base1</v>
+        <f t="shared" ref="A2:A65" si="0">"Route_"&amp;C2&amp;"_"&amp;G2&amp;"_"&amp;H2</f>
+        <v>Route_MP_SBJR_PMLZ_1</v>
       </c>
       <c r="B2" t="s">
         <v>255</v>
@@ -40496,8 +40496,8 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">C3&amp;"_"&amp;H3&amp;"_"&amp;B3</f>
-        <v>MP_PMXL_1_base1</v>
+        <f t="shared" si="0"/>
+        <v>Route_MP_SBJR_PMXL_1</v>
       </c>
       <c r="B3" t="s">
         <v>255</v>
@@ -40582,7 +40582,7 @@
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_ANGRA_DOS_REIS_base1</v>
+        <v>Route_MP_SBJR_FPSO_ANGRA_DOS_REIS</v>
       </c>
       <c r="B4" t="s">
         <v>255</v>
@@ -40667,7 +40667,7 @@
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_ILHABELA_base1</v>
+        <v>Route_MP_SBJR_FPSO_ILHABELA</v>
       </c>
       <c r="B5" t="s">
         <v>255</v>
@@ -40752,7 +40752,7 @@
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_ITAGUAI_base1</v>
+        <v>Route_MP_SBJR_FPSO_ITAGUAI</v>
       </c>
       <c r="B6" t="s">
         <v>255</v>
@@ -40837,7 +40837,7 @@
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_MANGARATIBA_base1</v>
+        <v>Route_MP_SBJR_FPSO_MANGARATIBA</v>
       </c>
       <c r="B7" t="s">
         <v>255</v>
@@ -40922,7 +40922,7 @@
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_MARICA_base1</v>
+        <v>Route_MP_SBJR_FPSO_MARICA</v>
       </c>
       <c r="B8" t="s">
         <v>255</v>
@@ -41007,7 +41007,7 @@
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_PARATY_base1</v>
+        <v>Route_MP_SBJR_FPSO_PARATY</v>
       </c>
       <c r="B9" t="s">
         <v>255</v>
@@ -41092,7 +41092,7 @@
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_PIONEIRO_DE_LIBRA_base1</v>
+        <v>Route_MP_SBJR_FPSO_PIONEIRO_DE_LIBRA</v>
       </c>
       <c r="B10" t="s">
         <v>255</v>
@@ -41177,7 +41177,7 @@
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_SANTOS_base1</v>
+        <v>Route_MP_SBJR_FPSO_SANTOS</v>
       </c>
       <c r="B11" t="s">
         <v>255</v>
@@ -41262,7 +41262,7 @@
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_SAO_PAULO_base1</v>
+        <v>Route_MP_SBJR_FPSO_SAO_PAULO</v>
       </c>
       <c r="B12" t="s">
         <v>255</v>
@@ -41347,7 +41347,7 @@
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_SAQUAREMA_base1</v>
+        <v>Route_MP_SBJR_FPSO_SAQUAREMA</v>
       </c>
       <c r="B13" t="s">
         <v>255</v>
@@ -41432,7 +41432,7 @@
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_31_base1</v>
+        <v>Route_MP_SBJR_NS_31</v>
       </c>
       <c r="B14" t="s">
         <v>255</v>
@@ -41517,7 +41517,7 @@
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_33_base1</v>
+        <v>Route_MP_SBJR_NS_33</v>
       </c>
       <c r="B15" t="s">
         <v>255</v>
@@ -41602,7 +41602,7 @@
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_38_base1</v>
+        <v>Route_MP_SBJR_NS_38</v>
       </c>
       <c r="B16" t="s">
         <v>255</v>
@@ -41687,7 +41687,7 @@
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_39_base1</v>
+        <v>Route_MP_SBJR_NS_39</v>
       </c>
       <c r="B17" t="s">
         <v>255</v>
@@ -41772,7 +41772,7 @@
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_40_base1</v>
+        <v>Route_MP_SBJR_NS_40</v>
       </c>
       <c r="B18" t="s">
         <v>255</v>
@@ -41857,7 +41857,7 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_42_base1</v>
+        <v>Route_MP_SBJR_NS_42</v>
       </c>
       <c r="B19" t="s">
         <v>255</v>
@@ -41942,7 +41942,7 @@
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_43_base1</v>
+        <v>Route_MP_SBJR_NS_43</v>
       </c>
       <c r="B20" t="s">
         <v>255</v>
@@ -42027,7 +42027,7 @@
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_44_base1</v>
+        <v>Route_MP_SBJR_NS_44</v>
       </c>
       <c r="B21" t="s">
         <v>255</v>
@@ -42112,7 +42112,7 @@
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>MP_P_66_base1</v>
+        <v>Route_MP_SBJR_P_66</v>
       </c>
       <c r="B22" t="s">
         <v>255</v>
@@ -42197,7 +42197,7 @@
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>MP_P_67_base1</v>
+        <v>Route_MP_SBJR_P_67</v>
       </c>
       <c r="B23" t="s">
         <v>255</v>
@@ -42282,7 +42282,7 @@
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>MP_P_68_base1</v>
+        <v>Route_MP_SBJR_P_68</v>
       </c>
       <c r="B24" t="s">
         <v>255</v>
@@ -42367,7 +42367,7 @@
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>MP_P_69_base1</v>
+        <v>Route_MP_SBJR_P_69</v>
       </c>
       <c r="B25" t="s">
         <v>255</v>
@@ -42452,7 +42452,7 @@
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>MP_P_70_base1</v>
+        <v>Route_MP_SBJR_P_70</v>
       </c>
       <c r="B26" t="s">
         <v>255</v>
@@ -42537,7 +42537,7 @@
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>MP_P_74_base1</v>
+        <v>Route_MP_SBJR_P_74</v>
       </c>
       <c r="B27" t="s">
         <v>255</v>
@@ -42622,7 +42622,7 @@
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>MP_P_75_base1</v>
+        <v>Route_MP_SBJR_P_75</v>
       </c>
       <c r="B28" t="s">
         <v>255</v>
@@ -42707,7 +42707,7 @@
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>MP_P_76_base1</v>
+        <v>Route_MP_SBJR_P_76</v>
       </c>
       <c r="B29" t="s">
         <v>255</v>
@@ -42792,7 +42792,7 @@
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>MP_P_77_base1</v>
+        <v>Route_MP_SBJR_P_77</v>
       </c>
       <c r="B30" t="s">
         <v>255</v>
@@ -42877,7 +42877,7 @@
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>MP_SS_75_base1</v>
+        <v>Route_MP_SBJR_SS_75</v>
       </c>
       <c r="B31" t="s">
         <v>255</v>
@@ -42962,7 +42962,7 @@
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>MP_UMMA_base1</v>
+        <v>Route_MP_SBJR_UMMA</v>
       </c>
       <c r="B32" t="s">
         <v>255</v>
@@ -43047,7 +43047,7 @@
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>MP_UMPA_base1</v>
+        <v>Route_MP_SBJR_UMPA</v>
       </c>
       <c r="B33" t="s">
         <v>255</v>
@@ -43132,7 +43132,7 @@
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>MP_UMTJ_base1</v>
+        <v>Route_MP_SBJR_UMTJ</v>
       </c>
       <c r="B34" t="s">
         <v>255</v>
@@ -43217,7 +43217,7 @@
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>MP_UMVE_base1</v>
+        <v>Route_MP_SBJR_UMVE</v>
       </c>
       <c r="B35" t="s">
         <v>255</v>
@@ -43302,7 +43302,7 @@
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>MP_SRIO_base1</v>
+        <v>Route_MP_SBJR_SRIO</v>
       </c>
       <c r="B36" t="s">
         <v>255</v>
@@ -43387,7 +43387,7 @@
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>MP_SARU_base1</v>
+        <v>Route_MP_SBJR_SARU</v>
       </c>
       <c r="B37" t="s">
         <v>255</v>
@@ -43472,7 +43472,7 @@
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>MP_SAJA_base1</v>
+        <v>Route_MP_SBJR_SAJA</v>
       </c>
       <c r="B38" t="s">
         <v>255</v>
@@ -43557,7 +43557,7 @@
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FASA_base1</v>
+        <v>Route_MP_SBJR_FASA</v>
       </c>
       <c r="B39" t="s">
         <v>255</v>
@@ -43642,7 +43642,7 @@
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>MP_SECR_base1</v>
+        <v>Route_MP_SBJR_SECR</v>
       </c>
       <c r="B40" t="s">
         <v>255</v>
@@ -43727,7 +43727,7 @@
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>MP_SAON_base1</v>
+        <v>Route_MP_SBJR_SAON</v>
       </c>
       <c r="B41" t="s">
         <v>255</v>
@@ -43812,7 +43812,7 @@
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>MP_SKST_base1</v>
+        <v>Route_MP_SBJR_SKST</v>
       </c>
       <c r="B42" t="s">
         <v>255</v>
@@ -43897,7 +43897,7 @@
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>MP_SKAU_base1</v>
+        <v>Route_MP_SBJR_SKAU</v>
       </c>
       <c r="B43" t="s">
         <v>255</v>
@@ -43982,7 +43982,7 @@
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>MP_PMLZ_1_base2</v>
+        <v>Route_MP_SBMI_PMLZ_1</v>
       </c>
       <c r="B44" t="s">
         <v>256</v>
@@ -44067,7 +44067,7 @@
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>MP_PMXL_1_base2</v>
+        <v>Route_MP_SBMI_PMXL_1</v>
       </c>
       <c r="B45" t="s">
         <v>256</v>
@@ -44152,7 +44152,7 @@
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_ANGRA_DOS_REIS_base2</v>
+        <v>Route_MP_SBMI_FPSO_ANGRA_DOS_REIS</v>
       </c>
       <c r="B46" t="s">
         <v>256</v>
@@ -44237,7 +44237,7 @@
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_ILHABELA_base2</v>
+        <v>Route_MP_SBMI_FPSO_ILHABELA</v>
       </c>
       <c r="B47" t="s">
         <v>256</v>
@@ -44322,7 +44322,7 @@
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_ITAGUAI_base2</v>
+        <v>Route_MP_SBMI_FPSO_ITAGUAI</v>
       </c>
       <c r="B48" t="s">
         <v>256</v>
@@ -44407,7 +44407,7 @@
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_MANGARATIBA_base2</v>
+        <v>Route_MP_SBMI_FPSO_MANGARATIBA</v>
       </c>
       <c r="B49" t="s">
         <v>256</v>
@@ -44492,7 +44492,7 @@
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_MARICA_base2</v>
+        <v>Route_MP_SBMI_FPSO_MARICA</v>
       </c>
       <c r="B50" t="s">
         <v>256</v>
@@ -44577,7 +44577,7 @@
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_PARATY_base2</v>
+        <v>Route_MP_SBMI_FPSO_PARATY</v>
       </c>
       <c r="B51" t="s">
         <v>256</v>
@@ -44662,7 +44662,7 @@
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_PIONEIRO_DE_LIBRA_base2</v>
+        <v>Route_MP_SBMI_FPSO_PIONEIRO_DE_LIBRA</v>
       </c>
       <c r="B52" t="s">
         <v>256</v>
@@ -44747,7 +44747,7 @@
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_SANTOS_base2</v>
+        <v>Route_MP_SBMI_FPSO_SANTOS</v>
       </c>
       <c r="B53" t="s">
         <v>256</v>
@@ -44832,7 +44832,7 @@
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_SAO_PAULO_base2</v>
+        <v>Route_MP_SBMI_FPSO_SAO_PAULO</v>
       </c>
       <c r="B54" t="s">
         <v>256</v>
@@ -44917,7 +44917,7 @@
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>MP_FPSO_SAQUAREMA_base2</v>
+        <v>Route_MP_SBMI_FPSO_SAQUAREMA</v>
       </c>
       <c r="B55" t="s">
         <v>256</v>
@@ -45002,7 +45002,7 @@
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_31_base2</v>
+        <v>Route_MP_SBMI_NS_31</v>
       </c>
       <c r="B56" t="s">
         <v>256</v>
@@ -45087,7 +45087,7 @@
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_33_base2</v>
+        <v>Route_MP_SBMI_NS_33</v>
       </c>
       <c r="B57" t="s">
         <v>256</v>
@@ -45172,7 +45172,7 @@
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_38_base2</v>
+        <v>Route_MP_SBMI_NS_38</v>
       </c>
       <c r="B58" t="s">
         <v>256</v>
@@ -45257,7 +45257,7 @@
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_39_base2</v>
+        <v>Route_MP_SBMI_NS_39</v>
       </c>
       <c r="B59" t="s">
         <v>256</v>
@@ -45342,7 +45342,7 @@
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_40_base2</v>
+        <v>Route_MP_SBMI_NS_40</v>
       </c>
       <c r="B60" t="s">
         <v>256</v>
@@ -45427,7 +45427,7 @@
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_42_base2</v>
+        <v>Route_MP_SBMI_NS_42</v>
       </c>
       <c r="B61" t="s">
         <v>256</v>
@@ -45512,7 +45512,7 @@
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_43_base2</v>
+        <v>Route_MP_SBMI_NS_43</v>
       </c>
       <c r="B62" t="s">
         <v>256</v>
@@ -45597,7 +45597,7 @@
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>MP_NS_44_base2</v>
+        <v>Route_MP_SBMI_NS_44</v>
       </c>
       <c r="B63" t="s">
         <v>256</v>
@@ -45682,7 +45682,7 @@
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>MP_P_66_base2</v>
+        <v>Route_MP_SBMI_P_66</v>
       </c>
       <c r="B64" t="s">
         <v>256</v>
@@ -45767,7 +45767,7 @@
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>MP_P_67_base2</v>
+        <v>Route_MP_SBMI_P_67</v>
       </c>
       <c r="B65" t="s">
         <v>256</v>
@@ -45851,8 +45851,8 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
-        <v>MP_P_68_base2</v>
+        <f t="shared" ref="A66:A129" si="1">"Route_"&amp;C66&amp;"_"&amp;G66&amp;"_"&amp;H66</f>
+        <v>Route_MP_SBMI_P_68</v>
       </c>
       <c r="B66" t="s">
         <v>256</v>
@@ -45936,8 +45936,8 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">C67&amp;"_"&amp;H67&amp;"_"&amp;B67</f>
-        <v>MP_P_69_base2</v>
+        <f t="shared" si="1"/>
+        <v>Route_MP_SBMI_P_69</v>
       </c>
       <c r="B67" t="s">
         <v>256</v>
@@ -46022,7 +46022,7 @@
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_70_base2</v>
+        <v>Route_MP_SBMI_P_70</v>
       </c>
       <c r="B68" t="s">
         <v>256</v>
@@ -46107,7 +46107,7 @@
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_74_base2</v>
+        <v>Route_MP_SBMI_P_74</v>
       </c>
       <c r="B69" t="s">
         <v>256</v>
@@ -46192,7 +46192,7 @@
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_75_base2</v>
+        <v>Route_MP_SBMI_P_75</v>
       </c>
       <c r="B70" t="s">
         <v>256</v>
@@ -46277,7 +46277,7 @@
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_76_base2</v>
+        <v>Route_MP_SBMI_P_76</v>
       </c>
       <c r="B71" t="s">
         <v>256</v>
@@ -46362,7 +46362,7 @@
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_77_base2</v>
+        <v>Route_MP_SBMI_P_77</v>
       </c>
       <c r="B72" t="s">
         <v>256</v>
@@ -46447,7 +46447,7 @@
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SS_75_base2</v>
+        <v>Route_MP_SBMI_SS_75</v>
       </c>
       <c r="B73" t="s">
         <v>256</v>
@@ -46532,7 +46532,7 @@
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>MP_UMMA_base2</v>
+        <v>Route_MP_SBMI_UMMA</v>
       </c>
       <c r="B74" t="s">
         <v>256</v>
@@ -46617,7 +46617,7 @@
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>MP_UMPA_base2</v>
+        <v>Route_MP_SBMI_UMPA</v>
       </c>
       <c r="B75" t="s">
         <v>256</v>
@@ -46702,7 +46702,7 @@
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>MP_UMTJ_base2</v>
+        <v>Route_MP_SBMI_UMTJ</v>
       </c>
       <c r="B76" t="s">
         <v>256</v>
@@ -46787,7 +46787,7 @@
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>MP_UMVE_base2</v>
+        <v>Route_MP_SBMI_UMVE</v>
       </c>
       <c r="B77" t="s">
         <v>256</v>
@@ -46872,7 +46872,7 @@
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SRIO_base2</v>
+        <v>Route_MP_SBMI_SRIO</v>
       </c>
       <c r="B78" t="s">
         <v>256</v>
@@ -46957,7 +46957,7 @@
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SARU_base2</v>
+        <v>Route_MP_SBMI_SARU</v>
       </c>
       <c r="B79" t="s">
         <v>256</v>
@@ -47042,7 +47042,7 @@
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SAJA_base2</v>
+        <v>Route_MP_SBMI_SAJA</v>
       </c>
       <c r="B80" t="s">
         <v>256</v>
@@ -47127,7 +47127,7 @@
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FASA_base2</v>
+        <v>Route_MP_SBMI_FASA</v>
       </c>
       <c r="B81" t="s">
         <v>256</v>
@@ -47212,7 +47212,7 @@
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SECR_base2</v>
+        <v>Route_MP_SBMI_SECR</v>
       </c>
       <c r="B82" t="s">
         <v>256</v>
@@ -47297,7 +47297,7 @@
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SAON_base2</v>
+        <v>Route_MP_SBMI_SAON</v>
       </c>
       <c r="B83" t="s">
         <v>256</v>
@@ -47382,7 +47382,7 @@
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SKST_base2</v>
+        <v>Route_MP_SBMI_SKST</v>
       </c>
       <c r="B84" t="s">
         <v>256</v>
@@ -47467,7 +47467,7 @@
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SKAU_base2</v>
+        <v>Route_MP_SBMI_SKAU</v>
       </c>
       <c r="B85" t="s">
         <v>256</v>
@@ -47552,7 +47552,7 @@
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>MP_PMLZ_1_base3</v>
+        <v>Route_MP_SBCB_PMLZ_1</v>
       </c>
       <c r="B86" t="s">
         <v>257</v>
@@ -47637,7 +47637,7 @@
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>MP_PMXL_1_base3</v>
+        <v>Route_MP_SBCB_PMXL_1</v>
       </c>
       <c r="B87" t="s">
         <v>257</v>
@@ -47722,7 +47722,7 @@
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FPSO_ANGRA_DOS_REIS_base3</v>
+        <v>Route_MP_SBCB_FPSO_ANGRA_DOS_REIS</v>
       </c>
       <c r="B88" t="s">
         <v>257</v>
@@ -47807,7 +47807,7 @@
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FPSO_ILHABELA_base3</v>
+        <v>Route_MP_SBCB_FPSO_ILHABELA</v>
       </c>
       <c r="B89" t="s">
         <v>257</v>
@@ -47892,7 +47892,7 @@
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FPSO_ITAGUAI_base3</v>
+        <v>Route_MP_SBCB_FPSO_ITAGUAI</v>
       </c>
       <c r="B90" t="s">
         <v>257</v>
@@ -47977,7 +47977,7 @@
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FPSO_MANGARATIBA_base3</v>
+        <v>Route_MP_SBCB_FPSO_MANGARATIBA</v>
       </c>
       <c r="B91" t="s">
         <v>257</v>
@@ -48062,7 +48062,7 @@
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FPSO_MARICA_base3</v>
+        <v>Route_MP_SBCB_FPSO_MARICA</v>
       </c>
       <c r="B92" t="s">
         <v>257</v>
@@ -48147,7 +48147,7 @@
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FPSO_PARATY_base3</v>
+        <v>Route_MP_SBCB_FPSO_PARATY</v>
       </c>
       <c r="B93" t="s">
         <v>257</v>
@@ -48232,7 +48232,7 @@
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FPSO_PIONEIRO_DE_LIBRA_base3</v>
+        <v>Route_MP_SBCB_FPSO_PIONEIRO_DE_LIBRA</v>
       </c>
       <c r="B94" t="s">
         <v>257</v>
@@ -48317,7 +48317,7 @@
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FPSO_SANTOS_base3</v>
+        <v>Route_MP_SBCB_FPSO_SANTOS</v>
       </c>
       <c r="B95" t="s">
         <v>257</v>
@@ -48402,7 +48402,7 @@
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FPSO_SAO_PAULO_base3</v>
+        <v>Route_MP_SBCB_FPSO_SAO_PAULO</v>
       </c>
       <c r="B96" t="s">
         <v>257</v>
@@ -48487,7 +48487,7 @@
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FPSO_SAQUAREMA_base3</v>
+        <v>Route_MP_SBCB_FPSO_SAQUAREMA</v>
       </c>
       <c r="B97" t="s">
         <v>257</v>
@@ -48572,7 +48572,7 @@
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>MP_NS_31_base3</v>
+        <v>Route_MP_SBCB_NS_31</v>
       </c>
       <c r="B98" t="s">
         <v>257</v>
@@ -48657,7 +48657,7 @@
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
-        <v>MP_NS_33_base3</v>
+        <v>Route_MP_SBCB_NS_33</v>
       </c>
       <c r="B99" t="s">
         <v>257</v>
@@ -48742,7 +48742,7 @@
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
-        <v>MP_NS_38_base3</v>
+        <v>Route_MP_SBCB_NS_38</v>
       </c>
       <c r="B100" t="s">
         <v>257</v>
@@ -48827,7 +48827,7 @@
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
-        <v>MP_NS_39_base3</v>
+        <v>Route_MP_SBCB_NS_39</v>
       </c>
       <c r="B101" t="s">
         <v>257</v>
@@ -48912,7 +48912,7 @@
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>MP_NS_40_base3</v>
+        <v>Route_MP_SBCB_NS_40</v>
       </c>
       <c r="B102" t="s">
         <v>257</v>
@@ -48997,7 +48997,7 @@
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>MP_NS_42_base3</v>
+        <v>Route_MP_SBCB_NS_42</v>
       </c>
       <c r="B103" t="s">
         <v>257</v>
@@ -49082,7 +49082,7 @@
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>MP_NS_43_base3</v>
+        <v>Route_MP_SBCB_NS_43</v>
       </c>
       <c r="B104" t="s">
         <v>257</v>
@@ -49167,7 +49167,7 @@
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>MP_NS_44_base3</v>
+        <v>Route_MP_SBCB_NS_44</v>
       </c>
       <c r="B105" t="s">
         <v>257</v>
@@ -49252,7 +49252,7 @@
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_66_base3</v>
+        <v>Route_MP_SBCB_P_66</v>
       </c>
       <c r="B106" t="s">
         <v>257</v>
@@ -49337,7 +49337,7 @@
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_67_base3</v>
+        <v>Route_MP_SBCB_P_67</v>
       </c>
       <c r="B107" t="s">
         <v>257</v>
@@ -49422,7 +49422,7 @@
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_68_base3</v>
+        <v>Route_MP_SBCB_P_68</v>
       </c>
       <c r="B108" t="s">
         <v>257</v>
@@ -49507,7 +49507,7 @@
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_69_base3</v>
+        <v>Route_MP_SBCB_P_69</v>
       </c>
       <c r="B109" t="s">
         <v>257</v>
@@ -49592,7 +49592,7 @@
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_70_base3</v>
+        <v>Route_MP_SBCB_P_70</v>
       </c>
       <c r="B110" t="s">
         <v>257</v>
@@ -49677,7 +49677,7 @@
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_74_base3</v>
+        <v>Route_MP_SBCB_P_74</v>
       </c>
       <c r="B111" t="s">
         <v>257</v>
@@ -49762,7 +49762,7 @@
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_75_base3</v>
+        <v>Route_MP_SBCB_P_75</v>
       </c>
       <c r="B112" t="s">
         <v>257</v>
@@ -49847,7 +49847,7 @@
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_76_base3</v>
+        <v>Route_MP_SBCB_P_76</v>
       </c>
       <c r="B113" t="s">
         <v>257</v>
@@ -49932,7 +49932,7 @@
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>MP_P_77_base3</v>
+        <v>Route_MP_SBCB_P_77</v>
       </c>
       <c r="B114" t="s">
         <v>257</v>
@@ -50017,7 +50017,7 @@
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SS_75_base3</v>
+        <v>Route_MP_SBCB_SS_75</v>
       </c>
       <c r="B115" t="s">
         <v>257</v>
@@ -50102,7 +50102,7 @@
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>MP_UMMA_base3</v>
+        <v>Route_MP_SBCB_UMMA</v>
       </c>
       <c r="B116" t="s">
         <v>257</v>
@@ -50187,7 +50187,7 @@
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>MP_UMPA_base3</v>
+        <v>Route_MP_SBCB_UMPA</v>
       </c>
       <c r="B117" t="s">
         <v>257</v>
@@ -50272,7 +50272,7 @@
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>MP_UMTJ_base3</v>
+        <v>Route_MP_SBCB_UMTJ</v>
       </c>
       <c r="B118" t="s">
         <v>257</v>
@@ -50357,7 +50357,7 @@
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>MP_UMVE_base3</v>
+        <v>Route_MP_SBCB_UMVE</v>
       </c>
       <c r="B119" t="s">
         <v>257</v>
@@ -50442,7 +50442,7 @@
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SRIO_base3</v>
+        <v>Route_MP_SBCB_SRIO</v>
       </c>
       <c r="B120" t="s">
         <v>257</v>
@@ -50527,7 +50527,7 @@
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SARU_base3</v>
+        <v>Route_MP_SBCB_SARU</v>
       </c>
       <c r="B121" t="s">
         <v>257</v>
@@ -50612,7 +50612,7 @@
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SAJA_base3</v>
+        <v>Route_MP_SBCB_SAJA</v>
       </c>
       <c r="B122" t="s">
         <v>257</v>
@@ -50697,7 +50697,7 @@
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
-        <v>MP_FASA_base3</v>
+        <v>Route_MP_SBCB_FASA</v>
       </c>
       <c r="B123" t="s">
         <v>257</v>
@@ -50782,7 +50782,7 @@
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SECR_base3</v>
+        <v>Route_MP_SBCB_SECR</v>
       </c>
       <c r="B124" t="s">
         <v>257</v>
@@ -50867,7 +50867,7 @@
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SAON_base3</v>
+        <v>Route_MP_SBCB_SAON</v>
       </c>
       <c r="B125" t="s">
         <v>257</v>
@@ -50952,7 +50952,7 @@
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SKST_base3</v>
+        <v>Route_MP_SBCB_SKST</v>
       </c>
       <c r="B126" t="s">
         <v>257</v>
@@ -51037,7 +51037,7 @@
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>MP_SKAU_base3</v>
+        <v>Route_MP_SBCB_SKAU</v>
       </c>
       <c r="B127" t="s">
         <v>257</v>
@@ -51122,7 +51122,7 @@
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>MP_PMLZ_1_base4</v>
+        <v>Route_MP_SBME_PMLZ_1</v>
       </c>
       <c r="B128" t="s">
         <v>258</v>
@@ -51207,7 +51207,7 @@
     <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
-        <v>MP_PMXL_1_base4</v>
+        <v>Route_MP_SBME_PMXL_1</v>
       </c>
       <c r="B129" t="s">
         <v>258</v>
@@ -51291,8 +51291,8 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" si="1"/>
-        <v>MP_FPSO_ANGRA_DOS_REIS_base4</v>
+        <f t="shared" ref="A130:A193" si="2">"Route_"&amp;C130&amp;"_"&amp;G130&amp;"_"&amp;H130</f>
+        <v>Route_MP_SBME_FPSO_ANGRA_DOS_REIS</v>
       </c>
       <c r="B130" t="s">
         <v>258</v>
@@ -51376,8 +51376,8 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="2">C131&amp;"_"&amp;H131&amp;"_"&amp;B131</f>
-        <v>MP_FPSO_ILHABELA_base4</v>
+        <f t="shared" si="2"/>
+        <v>Route_MP_SBME_FPSO_ILHABELA</v>
       </c>
       <c r="B131" t="s">
         <v>258</v>
@@ -51462,7 +51462,7 @@
     <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
-        <v>MP_FPSO_ITAGUAI_base4</v>
+        <v>Route_MP_SBME_FPSO_ITAGUAI</v>
       </c>
       <c r="B132" t="s">
         <v>258</v>
@@ -51547,7 +51547,7 @@
     <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>MP_FPSO_MANGARATIBA_base4</v>
+        <v>Route_MP_SBME_FPSO_MANGARATIBA</v>
       </c>
       <c r="B133" t="s">
         <v>258</v>
@@ -51632,7 +51632,7 @@
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>MP_FPSO_MARICA_base4</v>
+        <v>Route_MP_SBME_FPSO_MARICA</v>
       </c>
       <c r="B134" t="s">
         <v>258</v>
@@ -51717,7 +51717,7 @@
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>MP_FPSO_PARATY_base4</v>
+        <v>Route_MP_SBME_FPSO_PARATY</v>
       </c>
       <c r="B135" t="s">
         <v>258</v>
@@ -51802,7 +51802,7 @@
     <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>MP_FPSO_PIONEIRO_DE_LIBRA_base4</v>
+        <v>Route_MP_SBME_FPSO_PIONEIRO_DE_LIBRA</v>
       </c>
       <c r="B136" t="s">
         <v>258</v>
@@ -51887,7 +51887,7 @@
     <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>MP_FPSO_SANTOS_base4</v>
+        <v>Route_MP_SBME_FPSO_SANTOS</v>
       </c>
       <c r="B137" t="s">
         <v>258</v>
@@ -51972,7 +51972,7 @@
     <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>MP_FPSO_SAO_PAULO_base4</v>
+        <v>Route_MP_SBME_FPSO_SAO_PAULO</v>
       </c>
       <c r="B138" t="s">
         <v>258</v>
@@ -52057,7 +52057,7 @@
     <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>MP_FPSO_SAQUAREMA_base4</v>
+        <v>Route_MP_SBME_FPSO_SAQUAREMA</v>
       </c>
       <c r="B139" t="s">
         <v>258</v>
@@ -52142,7 +52142,7 @@
     <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>MP_NS_31_base4</v>
+        <v>Route_MP_SBME_NS_31</v>
       </c>
       <c r="B140" t="s">
         <v>258</v>
@@ -52227,7 +52227,7 @@
     <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>MP_NS_33_base4</v>
+        <v>Route_MP_SBME_NS_33</v>
       </c>
       <c r="B141" t="s">
         <v>258</v>
@@ -52312,7 +52312,7 @@
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>MP_NS_38_base4</v>
+        <v>Route_MP_SBME_NS_38</v>
       </c>
       <c r="B142" t="s">
         <v>258</v>
@@ -52397,7 +52397,7 @@
     <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>MP_NS_39_base4</v>
+        <v>Route_MP_SBME_NS_39</v>
       </c>
       <c r="B143" t="s">
         <v>258</v>
@@ -52482,7 +52482,7 @@
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>MP_NS_40_base4</v>
+        <v>Route_MP_SBME_NS_40</v>
       </c>
       <c r="B144" t="s">
         <v>258</v>
@@ -52567,7 +52567,7 @@
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>MP_NS_42_base4</v>
+        <v>Route_MP_SBME_NS_42</v>
       </c>
       <c r="B145" t="s">
         <v>258</v>
@@ -52652,7 +52652,7 @@
     <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>MP_NS_43_base4</v>
+        <v>Route_MP_SBME_NS_43</v>
       </c>
       <c r="B146" t="s">
         <v>258</v>
@@ -52737,7 +52737,7 @@
     <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>MP_NS_44_base4</v>
+        <v>Route_MP_SBME_NS_44</v>
       </c>
       <c r="B147" t="s">
         <v>258</v>
@@ -52822,7 +52822,7 @@
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>MP_P_66_base4</v>
+        <v>Route_MP_SBME_P_66</v>
       </c>
       <c r="B148" t="s">
         <v>258</v>
@@ -52907,7 +52907,7 @@
     <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>MP_P_67_base4</v>
+        <v>Route_MP_SBME_P_67</v>
       </c>
       <c r="B149" t="s">
         <v>258</v>
@@ -52992,7 +52992,7 @@
     <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>MP_P_68_base4</v>
+        <v>Route_MP_SBME_P_68</v>
       </c>
       <c r="B150" t="s">
         <v>258</v>
@@ -53077,7 +53077,7 @@
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>MP_P_69_base4</v>
+        <v>Route_MP_SBME_P_69</v>
       </c>
       <c r="B151" t="s">
         <v>258</v>
@@ -53162,7 +53162,7 @@
     <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>MP_P_70_base4</v>
+        <v>Route_MP_SBME_P_70</v>
       </c>
       <c r="B152" t="s">
         <v>258</v>
@@ -53247,7 +53247,7 @@
     <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
-        <v>MP_P_74_base4</v>
+        <v>Route_MP_SBME_P_74</v>
       </c>
       <c r="B153" t="s">
         <v>258</v>
@@ -53332,7 +53332,7 @@
     <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
-        <v>MP_P_75_base4</v>
+        <v>Route_MP_SBME_P_75</v>
       </c>
       <c r="B154" t="s">
         <v>258</v>
@@ -53417,7 +53417,7 @@
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
-        <v>MP_P_76_base4</v>
+        <v>Route_MP_SBME_P_76</v>
       </c>
       <c r="B155" t="s">
         <v>258</v>
@@ -53502,7 +53502,7 @@
     <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
-        <v>MP_P_77_base4</v>
+        <v>Route_MP_SBME_P_77</v>
       </c>
       <c r="B156" t="s">
         <v>258</v>
@@ -53587,7 +53587,7 @@
     <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
-        <v>MP_SS_75_base4</v>
+        <v>Route_MP_SBME_SS_75</v>
       </c>
       <c r="B157" t="s">
         <v>258</v>
@@ -53672,7 +53672,7 @@
     <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
-        <v>MP_UMMA_base4</v>
+        <v>Route_MP_SBME_UMMA</v>
       </c>
       <c r="B158" t="s">
         <v>258</v>
@@ -53757,7 +53757,7 @@
     <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
-        <v>MP_UMPA_base4</v>
+        <v>Route_MP_SBME_UMPA</v>
       </c>
       <c r="B159" t="s">
         <v>258</v>
@@ -53842,7 +53842,7 @@
     <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
-        <v>MP_UMTJ_base4</v>
+        <v>Route_MP_SBME_UMTJ</v>
       </c>
       <c r="B160" t="s">
         <v>258</v>
@@ -53927,7 +53927,7 @@
     <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
-        <v>MP_UMVE_base4</v>
+        <v>Route_MP_SBME_UMVE</v>
       </c>
       <c r="B161" t="s">
         <v>258</v>
@@ -54012,7 +54012,7 @@
     <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
-        <v>MP_SRIO_base4</v>
+        <v>Route_MP_SBME_SRIO</v>
       </c>
       <c r="B162" t="s">
         <v>258</v>
@@ -54097,7 +54097,7 @@
     <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
-        <v>MP_SARU_base4</v>
+        <v>Route_MP_SBME_SARU</v>
       </c>
       <c r="B163" t="s">
         <v>258</v>
@@ -54182,7 +54182,7 @@
     <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
-        <v>MP_SAJA_base4</v>
+        <v>Route_MP_SBME_SAJA</v>
       </c>
       <c r="B164" t="s">
         <v>258</v>
@@ -54267,7 +54267,7 @@
     <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
-        <v>MP_FASA_base4</v>
+        <v>Route_MP_SBME_FASA</v>
       </c>
       <c r="B165" t="s">
         <v>258</v>
@@ -54352,7 +54352,7 @@
     <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
-        <v>MP_SECR_base4</v>
+        <v>Route_MP_SBME_SECR</v>
       </c>
       <c r="B166" t="s">
         <v>258</v>
@@ -54437,7 +54437,7 @@
     <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
-        <v>MP_SAON_base4</v>
+        <v>Route_MP_SBME_SAON</v>
       </c>
       <c r="B167" t="s">
         <v>258</v>
@@ -54522,7 +54522,7 @@
     <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
-        <v>MP_SKST_base4</v>
+        <v>Route_MP_SBME_SKST</v>
       </c>
       <c r="B168" t="s">
         <v>258</v>
@@ -54607,7 +54607,7 @@
     <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
-        <v>MP_SKAU_base4</v>
+        <v>Route_MP_SBME_SKAU</v>
       </c>
       <c r="B169" t="s">
         <v>258</v>
@@ -54692,7 +54692,7 @@
     <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
-        <v>GP_PMLZ_1_base1</v>
+        <v>Route_GP_SBJR_PMLZ_1</v>
       </c>
       <c r="B170" t="s">
         <v>255</v>
@@ -54777,7 +54777,7 @@
     <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
-        <v>GP_PMXL_1_base1</v>
+        <v>Route_GP_SBJR_PMXL_1</v>
       </c>
       <c r="B171" t="s">
         <v>255</v>
@@ -54862,7 +54862,7 @@
     <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
-        <v>GP_FPSO_ANGRA_DOS_REIS_base1</v>
+        <v>Route_GP_SBJR_FPSO_ANGRA_DOS_REIS</v>
       </c>
       <c r="B172" t="s">
         <v>255</v>
@@ -54947,7 +54947,7 @@
     <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
-        <v>GP_FPSO_ILHABELA_base1</v>
+        <v>Route_GP_SBJR_FPSO_ILHABELA</v>
       </c>
       <c r="B173" t="s">
         <v>255</v>
@@ -55032,7 +55032,7 @@
     <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
-        <v>GP_FPSO_ITAGUAI_base1</v>
+        <v>Route_GP_SBJR_FPSO_ITAGUAI</v>
       </c>
       <c r="B174" t="s">
         <v>255</v>
@@ -55117,7 +55117,7 @@
     <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
-        <v>GP_FPSO_MANGARATIBA_base1</v>
+        <v>Route_GP_SBJR_FPSO_MANGARATIBA</v>
       </c>
       <c r="B175" t="s">
         <v>255</v>
@@ -55202,7 +55202,7 @@
     <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
-        <v>GP_FPSO_MARICA_base1</v>
+        <v>Route_GP_SBJR_FPSO_MARICA</v>
       </c>
       <c r="B176" t="s">
         <v>255</v>
@@ -55287,7 +55287,7 @@
     <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
-        <v>GP_FPSO_PARATY_base1</v>
+        <v>Route_GP_SBJR_FPSO_PARATY</v>
       </c>
       <c r="B177" t="s">
         <v>255</v>
@@ -55372,7 +55372,7 @@
     <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
-        <v>GP_FPSO_PIONEIRO_DE_LIBRA_base1</v>
+        <v>Route_GP_SBJR_FPSO_PIONEIRO_DE_LIBRA</v>
       </c>
       <c r="B178" t="s">
         <v>255</v>
@@ -55457,7 +55457,7 @@
     <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
-        <v>GP_FPSO_SANTOS_base1</v>
+        <v>Route_GP_SBJR_FPSO_SANTOS</v>
       </c>
       <c r="B179" t="s">
         <v>255</v>
@@ -55542,7 +55542,7 @@
     <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
-        <v>GP_FPSO_SAO_PAULO_base1</v>
+        <v>Route_GP_SBJR_FPSO_SAO_PAULO</v>
       </c>
       <c r="B180" t="s">
         <v>255</v>
@@ -55627,7 +55627,7 @@
     <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
-        <v>GP_FPSO_SAQUAREMA_base1</v>
+        <v>Route_GP_SBJR_FPSO_SAQUAREMA</v>
       </c>
       <c r="B181" t="s">
         <v>255</v>
@@ -55712,7 +55712,7 @@
     <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
-        <v>GP_NS_31_base1</v>
+        <v>Route_GP_SBJR_NS_31</v>
       </c>
       <c r="B182" t="s">
         <v>255</v>
@@ -55797,7 +55797,7 @@
     <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
-        <v>GP_NS_33_base1</v>
+        <v>Route_GP_SBJR_NS_33</v>
       </c>
       <c r="B183" t="s">
         <v>255</v>
@@ -55882,7 +55882,7 @@
     <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
-        <v>GP_NS_38_base1</v>
+        <v>Route_GP_SBJR_NS_38</v>
       </c>
       <c r="B184" t="s">
         <v>255</v>
@@ -55967,7 +55967,7 @@
     <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
-        <v>GP_NS_39_base1</v>
+        <v>Route_GP_SBJR_NS_39</v>
       </c>
       <c r="B185" t="s">
         <v>255</v>
@@ -56052,7 +56052,7 @@
     <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
-        <v>GP_NS_40_base1</v>
+        <v>Route_GP_SBJR_NS_40</v>
       </c>
       <c r="B186" t="s">
         <v>255</v>
@@ -56137,7 +56137,7 @@
     <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
-        <v>GP_NS_42_base1</v>
+        <v>Route_GP_SBJR_NS_42</v>
       </c>
       <c r="B187" t="s">
         <v>255</v>
@@ -56222,7 +56222,7 @@
     <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
-        <v>GP_NS_43_base1</v>
+        <v>Route_GP_SBJR_NS_43</v>
       </c>
       <c r="B188" t="s">
         <v>255</v>
@@ -56307,7 +56307,7 @@
     <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
-        <v>GP_NS_44_base1</v>
+        <v>Route_GP_SBJR_NS_44</v>
       </c>
       <c r="B189" t="s">
         <v>255</v>
@@ -56392,7 +56392,7 @@
     <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
-        <v>GP_P_66_base1</v>
+        <v>Route_GP_SBJR_P_66</v>
       </c>
       <c r="B190" t="s">
         <v>255</v>
@@ -56477,7 +56477,7 @@
     <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
-        <v>GP_P_67_base1</v>
+        <v>Route_GP_SBJR_P_67</v>
       </c>
       <c r="B191" t="s">
         <v>255</v>
@@ -56562,7 +56562,7 @@
     <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
-        <v>GP_P_68_base1</v>
+        <v>Route_GP_SBJR_P_68</v>
       </c>
       <c r="B192" t="s">
         <v>255</v>
@@ -56647,7 +56647,7 @@
     <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
-        <v>GP_P_69_base1</v>
+        <v>Route_GP_SBJR_P_69</v>
       </c>
       <c r="B193" t="s">
         <v>255</v>
@@ -56731,8 +56731,8 @@
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f t="shared" si="2"/>
-        <v>GP_P_70_base1</v>
+        <f t="shared" ref="A194:A257" si="3">"Route_"&amp;C194&amp;"_"&amp;G194&amp;"_"&amp;H194</f>
+        <v>Route_GP_SBJR_P_70</v>
       </c>
       <c r="B194" t="s">
         <v>255</v>
@@ -56816,8 +56816,8 @@
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A258" si="3">C195&amp;"_"&amp;H195&amp;"_"&amp;B195</f>
-        <v>GP_P_74_base1</v>
+        <f t="shared" si="3"/>
+        <v>Route_GP_SBJR_P_74</v>
       </c>
       <c r="B195" t="s">
         <v>255</v>
@@ -56902,7 +56902,7 @@
     <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_75_base1</v>
+        <v>Route_GP_SBJR_P_75</v>
       </c>
       <c r="B196" t="s">
         <v>255</v>
@@ -56987,7 +56987,7 @@
     <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_76_base1</v>
+        <v>Route_GP_SBJR_P_76</v>
       </c>
       <c r="B197" t="s">
         <v>255</v>
@@ -57072,7 +57072,7 @@
     <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_77_base1</v>
+        <v>Route_GP_SBJR_P_77</v>
       </c>
       <c r="B198" t="s">
         <v>255</v>
@@ -57157,7 +57157,7 @@
     <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SS_75_base1</v>
+        <v>Route_GP_SBJR_SS_75</v>
       </c>
       <c r="B199" t="s">
         <v>255</v>
@@ -57242,7 +57242,7 @@
     <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
-        <v>GP_UMMA_base1</v>
+        <v>Route_GP_SBJR_UMMA</v>
       </c>
       <c r="B200" t="s">
         <v>255</v>
@@ -57327,7 +57327,7 @@
     <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
-        <v>GP_UMPA_base1</v>
+        <v>Route_GP_SBJR_UMPA</v>
       </c>
       <c r="B201" t="s">
         <v>255</v>
@@ -57412,7 +57412,7 @@
     <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
-        <v>GP_UMTJ_base1</v>
+        <v>Route_GP_SBJR_UMTJ</v>
       </c>
       <c r="B202" t="s">
         <v>255</v>
@@ -57497,7 +57497,7 @@
     <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
-        <v>GP_UMVE_base1</v>
+        <v>Route_GP_SBJR_UMVE</v>
       </c>
       <c r="B203" t="s">
         <v>255</v>
@@ -57582,7 +57582,7 @@
     <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SRIO_base1</v>
+        <v>Route_GP_SBJR_SRIO</v>
       </c>
       <c r="B204" t="s">
         <v>255</v>
@@ -57667,7 +57667,7 @@
     <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SARU_base1</v>
+        <v>Route_GP_SBJR_SARU</v>
       </c>
       <c r="B205" t="s">
         <v>255</v>
@@ -57752,7 +57752,7 @@
     <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SAJA_base1</v>
+        <v>Route_GP_SBJR_SAJA</v>
       </c>
       <c r="B206" t="s">
         <v>255</v>
@@ -57837,7 +57837,7 @@
     <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FASA_base1</v>
+        <v>Route_GP_SBJR_FASA</v>
       </c>
       <c r="B207" t="s">
         <v>255</v>
@@ -57922,7 +57922,7 @@
     <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SECR_base1</v>
+        <v>Route_GP_SBJR_SECR</v>
       </c>
       <c r="B208" t="s">
         <v>255</v>
@@ -58007,7 +58007,7 @@
     <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SAON_base1</v>
+        <v>Route_GP_SBJR_SAON</v>
       </c>
       <c r="B209" t="s">
         <v>255</v>
@@ -58092,7 +58092,7 @@
     <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SKST_base1</v>
+        <v>Route_GP_SBJR_SKST</v>
       </c>
       <c r="B210" t="s">
         <v>255</v>
@@ -58177,7 +58177,7 @@
     <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SKAU_base1</v>
+        <v>Route_GP_SBJR_SKAU</v>
       </c>
       <c r="B211" t="s">
         <v>255</v>
@@ -58262,7 +58262,7 @@
     <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
-        <v>GP_PMLZ_1_base2</v>
+        <v>Route_GP_SBMI_PMLZ_1</v>
       </c>
       <c r="B212" t="s">
         <v>256</v>
@@ -58347,7 +58347,7 @@
     <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
-        <v>GP_PMXL_1_base2</v>
+        <v>Route_GP_SBMI_PMXL_1</v>
       </c>
       <c r="B213" t="s">
         <v>256</v>
@@ -58432,7 +58432,7 @@
     <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_ANGRA_DOS_REIS_base2</v>
+        <v>Route_GP_SBMI_FPSO_ANGRA_DOS_REIS</v>
       </c>
       <c r="B214" t="s">
         <v>256</v>
@@ -58517,7 +58517,7 @@
     <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_ILHABELA_base2</v>
+        <v>Route_GP_SBMI_FPSO_ILHABELA</v>
       </c>
       <c r="B215" t="s">
         <v>256</v>
@@ -58602,7 +58602,7 @@
     <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_ITAGUAI_base2</v>
+        <v>Route_GP_SBMI_FPSO_ITAGUAI</v>
       </c>
       <c r="B216" t="s">
         <v>256</v>
@@ -58687,7 +58687,7 @@
     <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_MANGARATIBA_base2</v>
+        <v>Route_GP_SBMI_FPSO_MANGARATIBA</v>
       </c>
       <c r="B217" t="s">
         <v>256</v>
@@ -58772,7 +58772,7 @@
     <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_MARICA_base2</v>
+        <v>Route_GP_SBMI_FPSO_MARICA</v>
       </c>
       <c r="B218" t="s">
         <v>256</v>
@@ -58857,7 +58857,7 @@
     <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_PARATY_base2</v>
+        <v>Route_GP_SBMI_FPSO_PARATY</v>
       </c>
       <c r="B219" t="s">
         <v>256</v>
@@ -58942,7 +58942,7 @@
     <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_PIONEIRO_DE_LIBRA_base2</v>
+        <v>Route_GP_SBMI_FPSO_PIONEIRO_DE_LIBRA</v>
       </c>
       <c r="B220" t="s">
         <v>256</v>
@@ -59027,7 +59027,7 @@
     <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_SANTOS_base2</v>
+        <v>Route_GP_SBMI_FPSO_SANTOS</v>
       </c>
       <c r="B221" t="s">
         <v>256</v>
@@ -59112,7 +59112,7 @@
     <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_SAO_PAULO_base2</v>
+        <v>Route_GP_SBMI_FPSO_SAO_PAULO</v>
       </c>
       <c r="B222" t="s">
         <v>256</v>
@@ -59197,7 +59197,7 @@
     <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_SAQUAREMA_base2</v>
+        <v>Route_GP_SBMI_FPSO_SAQUAREMA</v>
       </c>
       <c r="B223" t="s">
         <v>256</v>
@@ -59282,7 +59282,7 @@
     <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
-        <v>GP_NS_31_base2</v>
+        <v>Route_GP_SBMI_NS_31</v>
       </c>
       <c r="B224" t="s">
         <v>256</v>
@@ -59367,7 +59367,7 @@
     <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
-        <v>GP_NS_33_base2</v>
+        <v>Route_GP_SBMI_NS_33</v>
       </c>
       <c r="B225" t="s">
         <v>256</v>
@@ -59452,7 +59452,7 @@
     <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
-        <v>GP_NS_38_base2</v>
+        <v>Route_GP_SBMI_NS_38</v>
       </c>
       <c r="B226" t="s">
         <v>256</v>
@@ -59537,7 +59537,7 @@
     <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
-        <v>GP_NS_39_base2</v>
+        <v>Route_GP_SBMI_NS_39</v>
       </c>
       <c r="B227" t="s">
         <v>256</v>
@@ -59622,7 +59622,7 @@
     <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
-        <v>GP_NS_40_base2</v>
+        <v>Route_GP_SBMI_NS_40</v>
       </c>
       <c r="B228" t="s">
         <v>256</v>
@@ -59707,7 +59707,7 @@
     <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
-        <v>GP_NS_42_base2</v>
+        <v>Route_GP_SBMI_NS_42</v>
       </c>
       <c r="B229" t="s">
         <v>256</v>
@@ -59792,7 +59792,7 @@
     <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
-        <v>GP_NS_43_base2</v>
+        <v>Route_GP_SBMI_NS_43</v>
       </c>
       <c r="B230" t="s">
         <v>256</v>
@@ -59877,7 +59877,7 @@
     <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
-        <v>GP_NS_44_base2</v>
+        <v>Route_GP_SBMI_NS_44</v>
       </c>
       <c r="B231" t="s">
         <v>256</v>
@@ -59962,7 +59962,7 @@
     <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_66_base2</v>
+        <v>Route_GP_SBMI_P_66</v>
       </c>
       <c r="B232" t="s">
         <v>256</v>
@@ -60047,7 +60047,7 @@
     <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_67_base2</v>
+        <v>Route_GP_SBMI_P_67</v>
       </c>
       <c r="B233" t="s">
         <v>256</v>
@@ -60132,7 +60132,7 @@
     <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_68_base2</v>
+        <v>Route_GP_SBMI_P_68</v>
       </c>
       <c r="B234" t="s">
         <v>256</v>
@@ -60217,7 +60217,7 @@
     <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_69_base2</v>
+        <v>Route_GP_SBMI_P_69</v>
       </c>
       <c r="B235" t="s">
         <v>256</v>
@@ -60302,7 +60302,7 @@
     <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_70_base2</v>
+        <v>Route_GP_SBMI_P_70</v>
       </c>
       <c r="B236" t="s">
         <v>256</v>
@@ -60387,7 +60387,7 @@
     <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_74_base2</v>
+        <v>Route_GP_SBMI_P_74</v>
       </c>
       <c r="B237" t="s">
         <v>256</v>
@@ -60472,7 +60472,7 @@
     <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_75_base2</v>
+        <v>Route_GP_SBMI_P_75</v>
       </c>
       <c r="B238" t="s">
         <v>256</v>
@@ -60557,7 +60557,7 @@
     <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_76_base2</v>
+        <v>Route_GP_SBMI_P_76</v>
       </c>
       <c r="B239" t="s">
         <v>256</v>
@@ -60642,7 +60642,7 @@
     <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
-        <v>GP_P_77_base2</v>
+        <v>Route_GP_SBMI_P_77</v>
       </c>
       <c r="B240" t="s">
         <v>256</v>
@@ -60727,7 +60727,7 @@
     <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SS_75_base2</v>
+        <v>Route_GP_SBMI_SS_75</v>
       </c>
       <c r="B241" t="s">
         <v>256</v>
@@ -60812,7 +60812,7 @@
     <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
-        <v>GP_UMMA_base2</v>
+        <v>Route_GP_SBMI_UMMA</v>
       </c>
       <c r="B242" t="s">
         <v>256</v>
@@ -60897,7 +60897,7 @@
     <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
-        <v>GP_UMPA_base2</v>
+        <v>Route_GP_SBMI_UMPA</v>
       </c>
       <c r="B243" t="s">
         <v>256</v>
@@ -60982,7 +60982,7 @@
     <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
-        <v>GP_UMTJ_base2</v>
+        <v>Route_GP_SBMI_UMTJ</v>
       </c>
       <c r="B244" t="s">
         <v>256</v>
@@ -61067,7 +61067,7 @@
     <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
-        <v>GP_UMVE_base2</v>
+        <v>Route_GP_SBMI_UMVE</v>
       </c>
       <c r="B245" t="s">
         <v>256</v>
@@ -61152,7 +61152,7 @@
     <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SRIO_base2</v>
+        <v>Route_GP_SBMI_SRIO</v>
       </c>
       <c r="B246" t="s">
         <v>256</v>
@@ -61237,7 +61237,7 @@
     <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SARU_base2</v>
+        <v>Route_GP_SBMI_SARU</v>
       </c>
       <c r="B247" t="s">
         <v>256</v>
@@ -61322,7 +61322,7 @@
     <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SAJA_base2</v>
+        <v>Route_GP_SBMI_SAJA</v>
       </c>
       <c r="B248" t="s">
         <v>256</v>
@@ -61407,7 +61407,7 @@
     <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FASA_base2</v>
+        <v>Route_GP_SBMI_FASA</v>
       </c>
       <c r="B249" t="s">
         <v>256</v>
@@ -61492,7 +61492,7 @@
     <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SECR_base2</v>
+        <v>Route_GP_SBMI_SECR</v>
       </c>
       <c r="B250" t="s">
         <v>256</v>
@@ -61577,7 +61577,7 @@
     <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SAON_base2</v>
+        <v>Route_GP_SBMI_SAON</v>
       </c>
       <c r="B251" t="s">
         <v>256</v>
@@ -61662,7 +61662,7 @@
     <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SKST_base2</v>
+        <v>Route_GP_SBMI_SKST</v>
       </c>
       <c r="B252" t="s">
         <v>256</v>
@@ -61747,7 +61747,7 @@
     <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
-        <v>GP_SKAU_base2</v>
+        <v>Route_GP_SBMI_SKAU</v>
       </c>
       <c r="B253" t="s">
         <v>256</v>
@@ -61832,7 +61832,7 @@
     <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
-        <v>GP_PMLZ_1_base3</v>
+        <v>Route_GP_SBCB_PMLZ_1</v>
       </c>
       <c r="B254" t="s">
         <v>257</v>
@@ -61917,7 +61917,7 @@
     <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
-        <v>GP_PMXL_1_base3</v>
+        <v>Route_GP_SBCB_PMXL_1</v>
       </c>
       <c r="B255" t="s">
         <v>257</v>
@@ -62002,7 +62002,7 @@
     <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_ANGRA_DOS_REIS_base3</v>
+        <v>Route_GP_SBCB_FPSO_ANGRA_DOS_REIS</v>
       </c>
       <c r="B256" t="s">
         <v>257</v>
@@ -62087,7 +62087,7 @@
     <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="3"/>
-        <v>GP_FPSO_ILHABELA_base3</v>
+        <v>Route_GP_SBCB_FPSO_ILHABELA</v>
       </c>
       <c r="B257" t="s">
         <v>257</v>
@@ -62171,8 +62171,8 @@
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
-        <f t="shared" si="3"/>
-        <v>GP_FPSO_ITAGUAI_base3</v>
+        <f t="shared" ref="A258:A321" si="4">"Route_"&amp;C258&amp;"_"&amp;G258&amp;"_"&amp;H258</f>
+        <v>Route_GP_SBCB_FPSO_ITAGUAI</v>
       </c>
       <c r="B258" t="s">
         <v>257</v>
@@ -62256,8 +62256,8 @@
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
-        <f t="shared" ref="A259:A322" si="4">C259&amp;"_"&amp;H259&amp;"_"&amp;B259</f>
-        <v>GP_FPSO_MANGARATIBA_base3</v>
+        <f t="shared" si="4"/>
+        <v>Route_GP_SBCB_FPSO_MANGARATIBA</v>
       </c>
       <c r="B259" t="s">
         <v>257</v>
@@ -62342,7 +62342,7 @@
     <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_MARICA_base3</v>
+        <v>Route_GP_SBCB_FPSO_MARICA</v>
       </c>
       <c r="B260" t="s">
         <v>257</v>
@@ -62427,7 +62427,7 @@
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_PARATY_base3</v>
+        <v>Route_GP_SBCB_FPSO_PARATY</v>
       </c>
       <c r="B261" t="s">
         <v>257</v>
@@ -62512,7 +62512,7 @@
     <row r="262" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_PIONEIRO_DE_LIBRA_base3</v>
+        <v>Route_GP_SBCB_FPSO_PIONEIRO_DE_LIBRA</v>
       </c>
       <c r="B262" t="s">
         <v>257</v>
@@ -62597,7 +62597,7 @@
     <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_SANTOS_base3</v>
+        <v>Route_GP_SBCB_FPSO_SANTOS</v>
       </c>
       <c r="B263" t="s">
         <v>257</v>
@@ -62682,7 +62682,7 @@
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_SAO_PAULO_base3</v>
+        <v>Route_GP_SBCB_FPSO_SAO_PAULO</v>
       </c>
       <c r="B264" t="s">
         <v>257</v>
@@ -62767,7 +62767,7 @@
     <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_SAQUAREMA_base3</v>
+        <v>Route_GP_SBCB_FPSO_SAQUAREMA</v>
       </c>
       <c r="B265" t="s">
         <v>257</v>
@@ -62852,7 +62852,7 @@
     <row r="266" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_31_base3</v>
+        <v>Route_GP_SBCB_NS_31</v>
       </c>
       <c r="B266" t="s">
         <v>257</v>
@@ -62937,7 +62937,7 @@
     <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_33_base3</v>
+        <v>Route_GP_SBCB_NS_33</v>
       </c>
       <c r="B267" t="s">
         <v>257</v>
@@ -63022,7 +63022,7 @@
     <row r="268" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_38_base3</v>
+        <v>Route_GP_SBCB_NS_38</v>
       </c>
       <c r="B268" t="s">
         <v>257</v>
@@ -63107,7 +63107,7 @@
     <row r="269" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_39_base3</v>
+        <v>Route_GP_SBCB_NS_39</v>
       </c>
       <c r="B269" t="s">
         <v>257</v>
@@ -63192,7 +63192,7 @@
     <row r="270" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_40_base3</v>
+        <v>Route_GP_SBCB_NS_40</v>
       </c>
       <c r="B270" t="s">
         <v>257</v>
@@ -63277,7 +63277,7 @@
     <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_42_base3</v>
+        <v>Route_GP_SBCB_NS_42</v>
       </c>
       <c r="B271" t="s">
         <v>257</v>
@@ -63362,7 +63362,7 @@
     <row r="272" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_43_base3</v>
+        <v>Route_GP_SBCB_NS_43</v>
       </c>
       <c r="B272" t="s">
         <v>257</v>
@@ -63447,7 +63447,7 @@
     <row r="273" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_44_base3</v>
+        <v>Route_GP_SBCB_NS_44</v>
       </c>
       <c r="B273" t="s">
         <v>257</v>
@@ -63532,7 +63532,7 @@
     <row r="274" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_66_base3</v>
+        <v>Route_GP_SBCB_P_66</v>
       </c>
       <c r="B274" t="s">
         <v>257</v>
@@ -63617,7 +63617,7 @@
     <row r="275" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_67_base3</v>
+        <v>Route_GP_SBCB_P_67</v>
       </c>
       <c r="B275" t="s">
         <v>257</v>
@@ -63702,7 +63702,7 @@
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_68_base3</v>
+        <v>Route_GP_SBCB_P_68</v>
       </c>
       <c r="B276" t="s">
         <v>257</v>
@@ -63787,7 +63787,7 @@
     <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_69_base3</v>
+        <v>Route_GP_SBCB_P_69</v>
       </c>
       <c r="B277" t="s">
         <v>257</v>
@@ -63872,7 +63872,7 @@
     <row r="278" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_70_base3</v>
+        <v>Route_GP_SBCB_P_70</v>
       </c>
       <c r="B278" t="s">
         <v>257</v>
@@ -63957,7 +63957,7 @@
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_74_base3</v>
+        <v>Route_GP_SBCB_P_74</v>
       </c>
       <c r="B279" t="s">
         <v>257</v>
@@ -64042,7 +64042,7 @@
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_75_base3</v>
+        <v>Route_GP_SBCB_P_75</v>
       </c>
       <c r="B280" t="s">
         <v>257</v>
@@ -64127,7 +64127,7 @@
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_76_base3</v>
+        <v>Route_GP_SBCB_P_76</v>
       </c>
       <c r="B281" t="s">
         <v>257</v>
@@ -64212,7 +64212,7 @@
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_77_base3</v>
+        <v>Route_GP_SBCB_P_77</v>
       </c>
       <c r="B282" t="s">
         <v>257</v>
@@ -64297,7 +64297,7 @@
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
         <f t="shared" si="4"/>
-        <v>GP_SS_75_base3</v>
+        <v>Route_GP_SBCB_SS_75</v>
       </c>
       <c r="B283" t="s">
         <v>257</v>
@@ -64382,7 +64382,7 @@
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
         <f t="shared" si="4"/>
-        <v>GP_UMMA_base3</v>
+        <v>Route_GP_SBCB_UMMA</v>
       </c>
       <c r="B284" t="s">
         <v>257</v>
@@ -64467,7 +64467,7 @@
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
         <f t="shared" si="4"/>
-        <v>GP_UMPA_base3</v>
+        <v>Route_GP_SBCB_UMPA</v>
       </c>
       <c r="B285" t="s">
         <v>257</v>
@@ -64552,7 +64552,7 @@
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
         <f t="shared" si="4"/>
-        <v>GP_UMTJ_base3</v>
+        <v>Route_GP_SBCB_UMTJ</v>
       </c>
       <c r="B286" t="s">
         <v>257</v>
@@ -64637,7 +64637,7 @@
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
         <f t="shared" si="4"/>
-        <v>GP_UMVE_base3</v>
+        <v>Route_GP_SBCB_UMVE</v>
       </c>
       <c r="B287" t="s">
         <v>257</v>
@@ -64722,7 +64722,7 @@
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
         <f t="shared" si="4"/>
-        <v>GP_SRIO_base3</v>
+        <v>Route_GP_SBCB_SRIO</v>
       </c>
       <c r="B288" t="s">
         <v>257</v>
@@ -64807,7 +64807,7 @@
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
         <f t="shared" si="4"/>
-        <v>GP_SARU_base3</v>
+        <v>Route_GP_SBCB_SARU</v>
       </c>
       <c r="B289" t="s">
         <v>257</v>
@@ -64892,7 +64892,7 @@
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
         <f t="shared" si="4"/>
-        <v>GP_SAJA_base3</v>
+        <v>Route_GP_SBCB_SAJA</v>
       </c>
       <c r="B290" t="s">
         <v>257</v>
@@ -64977,7 +64977,7 @@
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FASA_base3</v>
+        <v>Route_GP_SBCB_FASA</v>
       </c>
       <c r="B291" t="s">
         <v>257</v>
@@ -65062,7 +65062,7 @@
     <row r="292" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="4"/>
-        <v>GP_SECR_base3</v>
+        <v>Route_GP_SBCB_SECR</v>
       </c>
       <c r="B292" t="s">
         <v>257</v>
@@ -65147,7 +65147,7 @@
     <row r="293" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="4"/>
-        <v>GP_SAON_base3</v>
+        <v>Route_GP_SBCB_SAON</v>
       </c>
       <c r="B293" t="s">
         <v>257</v>
@@ -65232,7 +65232,7 @@
     <row r="294" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="4"/>
-        <v>GP_SKST_base3</v>
+        <v>Route_GP_SBCB_SKST</v>
       </c>
       <c r="B294" t="s">
         <v>257</v>
@@ -65317,7 +65317,7 @@
     <row r="295" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="4"/>
-        <v>GP_SKAU_base3</v>
+        <v>Route_GP_SBCB_SKAU</v>
       </c>
       <c r="B295" t="s">
         <v>257</v>
@@ -65402,7 +65402,7 @@
     <row r="296" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
         <f t="shared" si="4"/>
-        <v>GP_PMLZ_1_base4</v>
+        <v>Route_GP_SBME_PMLZ_1</v>
       </c>
       <c r="B296" t="s">
         <v>258</v>
@@ -65487,7 +65487,7 @@
     <row r="297" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
         <f t="shared" si="4"/>
-        <v>GP_PMXL_1_base4</v>
+        <v>Route_GP_SBME_PMXL_1</v>
       </c>
       <c r="B297" t="s">
         <v>258</v>
@@ -65572,7 +65572,7 @@
     <row r="298" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_ANGRA_DOS_REIS_base4</v>
+        <v>Route_GP_SBME_FPSO_ANGRA_DOS_REIS</v>
       </c>
       <c r="B298" t="s">
         <v>258</v>
@@ -65657,7 +65657,7 @@
     <row r="299" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_ILHABELA_base4</v>
+        <v>Route_GP_SBME_FPSO_ILHABELA</v>
       </c>
       <c r="B299" t="s">
         <v>258</v>
@@ -65742,7 +65742,7 @@
     <row r="300" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_ITAGUAI_base4</v>
+        <v>Route_GP_SBME_FPSO_ITAGUAI</v>
       </c>
       <c r="B300" t="s">
         <v>258</v>
@@ -65827,7 +65827,7 @@
     <row r="301" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_MANGARATIBA_base4</v>
+        <v>Route_GP_SBME_FPSO_MANGARATIBA</v>
       </c>
       <c r="B301" t="s">
         <v>258</v>
@@ -65912,7 +65912,7 @@
     <row r="302" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_MARICA_base4</v>
+        <v>Route_GP_SBME_FPSO_MARICA</v>
       </c>
       <c r="B302" t="s">
         <v>258</v>
@@ -65997,7 +65997,7 @@
     <row r="303" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_PARATY_base4</v>
+        <v>Route_GP_SBME_FPSO_PARATY</v>
       </c>
       <c r="B303" t="s">
         <v>258</v>
@@ -66082,7 +66082,7 @@
     <row r="304" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_PIONEIRO_DE_LIBRA_base4</v>
+        <v>Route_GP_SBME_FPSO_PIONEIRO_DE_LIBRA</v>
       </c>
       <c r="B304" t="s">
         <v>258</v>
@@ -66167,7 +66167,7 @@
     <row r="305" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_SANTOS_base4</v>
+        <v>Route_GP_SBME_FPSO_SANTOS</v>
       </c>
       <c r="B305" t="s">
         <v>258</v>
@@ -66252,7 +66252,7 @@
     <row r="306" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_SAO_PAULO_base4</v>
+        <v>Route_GP_SBME_FPSO_SAO_PAULO</v>
       </c>
       <c r="B306" t="s">
         <v>258</v>
@@ -66337,7 +66337,7 @@
     <row r="307" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
         <f t="shared" si="4"/>
-        <v>GP_FPSO_SAQUAREMA_base4</v>
+        <v>Route_GP_SBME_FPSO_SAQUAREMA</v>
       </c>
       <c r="B307" t="s">
         <v>258</v>
@@ -66422,7 +66422,7 @@
     <row r="308" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_31_base4</v>
+        <v>Route_GP_SBME_NS_31</v>
       </c>
       <c r="B308" t="s">
         <v>258</v>
@@ -66507,7 +66507,7 @@
     <row r="309" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_33_base4</v>
+        <v>Route_GP_SBME_NS_33</v>
       </c>
       <c r="B309" t="s">
         <v>258</v>
@@ -66592,7 +66592,7 @@
     <row r="310" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_38_base4</v>
+        <v>Route_GP_SBME_NS_38</v>
       </c>
       <c r="B310" t="s">
         <v>258</v>
@@ -66677,7 +66677,7 @@
     <row r="311" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_39_base4</v>
+        <v>Route_GP_SBME_NS_39</v>
       </c>
       <c r="B311" t="s">
         <v>258</v>
@@ -66762,7 +66762,7 @@
     <row r="312" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_40_base4</v>
+        <v>Route_GP_SBME_NS_40</v>
       </c>
       <c r="B312" t="s">
         <v>258</v>
@@ -66847,7 +66847,7 @@
     <row r="313" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_42_base4</v>
+        <v>Route_GP_SBME_NS_42</v>
       </c>
       <c r="B313" t="s">
         <v>258</v>
@@ -66932,7 +66932,7 @@
     <row r="314" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_43_base4</v>
+        <v>Route_GP_SBME_NS_43</v>
       </c>
       <c r="B314" t="s">
         <v>258</v>
@@ -67017,7 +67017,7 @@
     <row r="315" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
         <f t="shared" si="4"/>
-        <v>GP_NS_44_base4</v>
+        <v>Route_GP_SBME_NS_44</v>
       </c>
       <c r="B315" t="s">
         <v>258</v>
@@ -67102,7 +67102,7 @@
     <row r="316" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_66_base4</v>
+        <v>Route_GP_SBME_P_66</v>
       </c>
       <c r="B316" t="s">
         <v>258</v>
@@ -67187,7 +67187,7 @@
     <row r="317" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_67_base4</v>
+        <v>Route_GP_SBME_P_67</v>
       </c>
       <c r="B317" t="s">
         <v>258</v>
@@ -67272,7 +67272,7 @@
     <row r="318" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_68_base4</v>
+        <v>Route_GP_SBME_P_68</v>
       </c>
       <c r="B318" t="s">
         <v>258</v>
@@ -67357,7 +67357,7 @@
     <row r="319" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_69_base4</v>
+        <v>Route_GP_SBME_P_69</v>
       </c>
       <c r="B319" t="s">
         <v>258</v>
@@ -67442,7 +67442,7 @@
     <row r="320" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_70_base4</v>
+        <v>Route_GP_SBME_P_70</v>
       </c>
       <c r="B320" t="s">
         <v>258</v>
@@ -67527,7 +67527,7 @@
     <row r="321" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
         <f t="shared" si="4"/>
-        <v>GP_P_74_base4</v>
+        <v>Route_GP_SBME_P_74</v>
       </c>
       <c r="B321" t="s">
         <v>258</v>
@@ -67611,8 +67611,8 @@
     </row>
     <row r="322" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
-        <f t="shared" si="4"/>
-        <v>GP_P_75_base4</v>
+        <f t="shared" ref="A322:A337" si="5">"Route_"&amp;C322&amp;"_"&amp;G322&amp;"_"&amp;H322</f>
+        <v>Route_GP_SBME_P_75</v>
       </c>
       <c r="B322" t="s">
         <v>258</v>
@@ -67696,8 +67696,8 @@
     </row>
     <row r="323" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f t="shared" ref="A323:A337" si="5">C323&amp;"_"&amp;H323&amp;"_"&amp;B323</f>
-        <v>GP_P_76_base4</v>
+        <f t="shared" si="5"/>
+        <v>Route_GP_SBME_P_76</v>
       </c>
       <c r="B323" t="s">
         <v>258</v>
@@ -67782,7 +67782,7 @@
     <row r="324" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
         <f t="shared" si="5"/>
-        <v>GP_P_77_base4</v>
+        <v>Route_GP_SBME_P_77</v>
       </c>
       <c r="B324" t="s">
         <v>258</v>
@@ -67867,7 +67867,7 @@
     <row r="325" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
         <f t="shared" si="5"/>
-        <v>GP_SS_75_base4</v>
+        <v>Route_GP_SBME_SS_75</v>
       </c>
       <c r="B325" t="s">
         <v>258</v>
@@ -67952,7 +67952,7 @@
     <row r="326" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
         <f t="shared" si="5"/>
-        <v>GP_UMMA_base4</v>
+        <v>Route_GP_SBME_UMMA</v>
       </c>
       <c r="B326" t="s">
         <v>258</v>
@@ -68037,7 +68037,7 @@
     <row r="327" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
         <f t="shared" si="5"/>
-        <v>GP_UMPA_base4</v>
+        <v>Route_GP_SBME_UMPA</v>
       </c>
       <c r="B327" t="s">
         <v>258</v>
@@ -68122,7 +68122,7 @@
     <row r="328" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
         <f t="shared" si="5"/>
-        <v>GP_UMTJ_base4</v>
+        <v>Route_GP_SBME_UMTJ</v>
       </c>
       <c r="B328" t="s">
         <v>258</v>
@@ -68207,7 +68207,7 @@
     <row r="329" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
         <f t="shared" si="5"/>
-        <v>GP_UMVE_base4</v>
+        <v>Route_GP_SBME_UMVE</v>
       </c>
       <c r="B329" t="s">
         <v>258</v>
@@ -68292,7 +68292,7 @@
     <row r="330" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
         <f t="shared" si="5"/>
-        <v>GP_SRIO_base4</v>
+        <v>Route_GP_SBME_SRIO</v>
       </c>
       <c r="B330" t="s">
         <v>258</v>
@@ -68377,7 +68377,7 @@
     <row r="331" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
         <f t="shared" si="5"/>
-        <v>GP_SARU_base4</v>
+        <v>Route_GP_SBME_SARU</v>
       </c>
       <c r="B331" t="s">
         <v>258</v>
@@ -68462,7 +68462,7 @@
     <row r="332" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f t="shared" si="5"/>
-        <v>GP_SAJA_base4</v>
+        <v>Route_GP_SBME_SAJA</v>
       </c>
       <c r="B332" t="s">
         <v>258</v>
@@ -68547,7 +68547,7 @@
     <row r="333" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f t="shared" si="5"/>
-        <v>GP_FASA_base4</v>
+        <v>Route_GP_SBME_FASA</v>
       </c>
       <c r="B333" t="s">
         <v>258</v>
@@ -68632,7 +68632,7 @@
     <row r="334" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f t="shared" si="5"/>
-        <v>GP_SECR_base4</v>
+        <v>Route_GP_SBME_SECR</v>
       </c>
       <c r="B334" t="s">
         <v>258</v>
@@ -68717,7 +68717,7 @@
     <row r="335" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f t="shared" si="5"/>
-        <v>GP_SAON_base4</v>
+        <v>Route_GP_SBME_SAON</v>
       </c>
       <c r="B335" t="s">
         <v>258</v>
@@ -68802,7 +68802,7 @@
     <row r="336" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f t="shared" si="5"/>
-        <v>GP_SKST_base4</v>
+        <v>Route_GP_SBME_SKST</v>
       </c>
       <c r="B336" t="s">
         <v>258</v>
@@ -68887,7 +68887,7 @@
     <row r="337" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f t="shared" si="5"/>
-        <v>GP_SKAU_base4</v>
+        <v>Route_GP_SBME_SKAU</v>
       </c>
       <c r="B337" t="s">
         <v>258</v>
